--- a/pred_ohlcv/54_21/2020-01-16 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 DAD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7173.266393955987</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-29840.35289395599</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-29830.67289395599</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-29830.67289395599</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-62608.69629395599</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-62436.69629395599</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-62936.69629395599</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-71913.32109395599</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>777.3680060439714</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5734.666493956029</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-29314.66889395603</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-33555.46569395603</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-589164.1101187776</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-588947.9783187776</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-582225.8169187777</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-582225.8169187777</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-582718.5777187777</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-585784.1223187777</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-587902.3872187777</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-587658.4724187776</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-573372.3221187777</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-532119.9813344147</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-532182.9813344147</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-533182.9813344147</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-533250.5213344147</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-533247.5213344147</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-533461.3580344147</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-533461.3580344147</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-534000.7693344147</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-533718.1793344148</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-532681.4325301108</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-533309.4090301108</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-530097.6628301108</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-530097.6628301108</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-532006.8147301108</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-554357.7657301108</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-566581.6502972669</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-561513.198210271</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-561813.198210271</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-560800.410210271</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-560700.410210271</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-561809.580424703</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-563452.0573814689</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-580710.739081469</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-583343.332481469</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-532719.5403516929</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-535499.5403516929</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-535524.7549516929</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-535520.5751516928</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-511357.8659516929</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-512387.6999516928</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-508619.3878516929</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-520932.8502516928</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-520248.7498516928</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-522284.9228516928</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-523787.9354516928</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-520528.5862516928</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-521760.7800516929</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-521656.1030516928</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-523119.3080516928</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-523119.3080516928</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-523889.4756516928</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-523148.3926516928</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-523666.9924516929</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-523663.9924516929</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-528645.0876516929</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-530190.9526516929</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-530187.9526516929</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-530714.6900516929</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-530293.4408516929</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-534257.4273516929</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-535692.586651693</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-571627.698242218</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-574363.475042218</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-574070.0585422179</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-571462.1659422179</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-571462.1659422179</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-545612.090601326</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-545612.090601326</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-541631.976301326</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-541626.277901326</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-541042.480133857</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-550431.1747663879</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-551519.2613663879</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-551516.2613663879</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-551746.592566388</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-544868.4237789209</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-544931.3788789209</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-544990.7874789209</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-545067.9376789209</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-543236.0731789208</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-543001.6919789208</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-543001.6919789208</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-543022.0316789208</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-543022.0316789208</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-543110.1182789209</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-543107.1182789209</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-543107.1182789209</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-543123.9493789208</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-543866.2777789208</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 DAD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7173.266393955987</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-29840.35289395599</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-29830.67289395599</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-29830.67289395599</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-62608.69629395599</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-63225.271493956</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-63207.271493956</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-61424.484893956</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-62540.484893956</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-46285.562593956</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-63830.787193956</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-63830.787193956</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-70601.94909395601</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-70599.54909395601</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-71200.23149395602</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-70281.65859395602</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-70281.65859395602</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-70218.09899395602</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-72633.26559395602</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-70471.82169395602</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-70471.82169395602</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>774.9680060439714</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>777.3680060439714</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5734.666493956029</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-5794.218293956029</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-7782.466493956029</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-7780.066493956029</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-7911.34359395603</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-8292.31189395603</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-8256.837693956029</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-9133.903593956029</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-32400.67059395603</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-32118.03509395603</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-33984.51119395603</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-33984.51119395603</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-33118.18619395603</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-33025.16299395603</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-33022.16299395603</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-33022.16299395603</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-29098.02229395603</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-29102.41509395603</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-29099.41509395603</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-29314.66889395603</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-28201.66889395603</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-28201.66889395603</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-33555.46569395603</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-944.6766939560293</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3442.538693956029</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-74922.19109395605</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-74919.19109395605</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-81714.93289395605</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-79803.24499395605</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-84229.50779395604</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-84223.73639395605</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-85283.02739395604</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-87220.02739395604</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-111544.321593956</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-121651.850593956</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-120586.094293956</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-122586.094293956</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-128117.748393956</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-128117.748393956</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-162180.651393956</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-172986.721893956</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-582225.8169187777</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-582718.5777187777</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-585784.1223187777</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-587902.3872187777</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-587902.3872187777</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-587658.4724187776</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-573372.3221187777</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-532119.9813344147</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-532182.9813344147</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-533182.9813344147</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-533250.5213344147</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-533247.5213344147</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-533461.3580344147</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-533461.3580344147</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-534000.7693344147</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-533718.1793344148</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-532681.4325301108</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-533309.4090301108</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-530097.6628301108</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-530097.6628301108</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-532006.8147301108</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-554357.7657301108</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-561513.198210271</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-561813.198210271</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-560800.410210271</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-560700.410210271</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-561809.580424703</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-532719.5403516929</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-535499.5403516929</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-535524.7549516929</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-535520.5751516928</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-511357.8659516929</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-512387.6999516928</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-508619.3878516929</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-520932.8502516928</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-520248.7498516928</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-522284.9228516928</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-523787.9354516928</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-520528.5862516928</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-521760.7800516929</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-521656.1030516928</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-523119.3080516928</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-523119.3080516928</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-523889.4756516928</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-523148.3926516928</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-523666.9924516929</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-523663.9924516929</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-528645.0876516929</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-530190.9526516929</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-530187.9526516929</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-530714.6900516929</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-530293.4408516929</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-534257.4273516929</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-535692.586651693</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-571627.698242218</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-574363.475042218</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-574070.0585422179</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-571462.1659422179</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-571462.1659422179</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-545612.090601326</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-541631.976301326</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-541626.277901326</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-541042.480133857</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-541042.480133857</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-550431.1747663879</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-551519.2613663879</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-544868.4237789209</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-545067.9376789209</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-545028.6084789209</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-545028.6084789209</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-543236.0731789208</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-543001.6919789208</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-543001.6919789208</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-543022.0316789208</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-543022.0316789208</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-543110.1182789209</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-543107.1182789209</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-543107.1182789209</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-543123.9493789208</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-543866.2777789208</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
